--- a/excel/b.xlsx
+++ b/excel/b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sky/Documents/script/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77C18F5-0571-2849-A605-66F50BAC2773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA0273F-A98F-C040-A921-4DA2E7E9C829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5480" yWindow="2300" windowWidth="27840" windowHeight="16940" xr2:uid="{049F275B-F735-C545-9D15-3B3541A1A7D9}"/>
   </bookViews>
@@ -35,17 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
-  <si>
-    <t>FT120634</t>
-  </si>
-  <si>
-    <t>FX298386</t>
-  </si>
-  <si>
-    <t>FX300146</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -407,48 +397,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668F2B74-CD6B-3644-91C2-68F73304D427}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel/b.xlsx
+++ b/excel/b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sky/Documents/script/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA0273F-A98F-C040-A921-4DA2E7E9C829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6913218E-FD4D-A343-9628-AB319460F356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5480" yWindow="2300" windowWidth="27840" windowHeight="16940" xr2:uid="{049F275B-F735-C545-9D15-3B3541A1A7D9}"/>
   </bookViews>
@@ -35,7 +35,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+  <si>
+    <t>DO252806867212352</t>
+  </si>
+  <si>
+    <t>DO253115747553344</t>
+  </si>
+  <si>
+    <t>JXS2302130802</t>
+  </si>
+  <si>
+    <t>JXS2302240929</t>
+  </si>
+  <si>
+    <t>JXS2302240940</t>
+  </si>
+  <si>
+    <t>JXS2302240947</t>
+  </si>
+  <si>
+    <t>JXS2302251020</t>
+  </si>
+  <si>
+    <t>JXS2302251022</t>
+  </si>
+  <si>
+    <t>JXS2302251023</t>
+  </si>
+  <si>
+    <t>JXS2302251026</t>
+  </si>
+  <si>
+    <t>JXS2302251096</t>
+  </si>
+  <si>
+    <t>JXS2302260418</t>
+  </si>
+  <si>
+    <t>JXS2302270620</t>
+  </si>
+  <si>
+    <t>JXS2302280468</t>
+  </si>
+  <si>
+    <t>JY202302130575</t>
+  </si>
+  <si>
+    <t>JY202302130576</t>
+  </si>
+  <si>
+    <t>JY202302130576_YH</t>
+  </si>
+  <si>
+    <t>JY202302150730</t>
+  </si>
+  <si>
+    <t>JY202302150730_YH</t>
+  </si>
+  <si>
+    <t>JY202302160608</t>
+  </si>
+  <si>
+    <t>JY202302160608_YH</t>
+  </si>
+  <si>
+    <t>JY202302170503</t>
+  </si>
+  <si>
+    <t>JY202302170503_YH</t>
+  </si>
+  <si>
+    <t>JY202302220380</t>
+  </si>
+  <si>
+    <t>JY202302220380_BZF</t>
+  </si>
+  <si>
+    <t>DO252877637163072</t>
+  </si>
+  <si>
+    <t>JXS2302251095</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -397,17 +479,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668F2B74-CD6B-3644-91C2-68F73304D427}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel/b.xlsx
+++ b/excel/b.xlsx
@@ -1,153 +1,561 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sky/Documents/script/excel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6913218E-FD4D-A343-9628-AB319460F356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="5480" yWindow="2300" windowWidth="27840" windowHeight="16940" xr2:uid="{049F275B-F735-C545-9D15-3B3541A1A7D9}"/>
+    <workbookView windowHeight="15320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
-  <si>
-    <t>DO252806867212352</t>
-  </si>
-  <si>
-    <t>DO253115747553344</t>
-  </si>
-  <si>
-    <t>JXS2302130802</t>
-  </si>
-  <si>
-    <t>JXS2302240929</t>
-  </si>
-  <si>
-    <t>JXS2302240940</t>
-  </si>
-  <si>
-    <t>JXS2302240947</t>
-  </si>
-  <si>
-    <t>JXS2302251020</t>
-  </si>
-  <si>
-    <t>JXS2302251022</t>
-  </si>
-  <si>
-    <t>JXS2302251023</t>
-  </si>
-  <si>
-    <t>JXS2302251026</t>
-  </si>
-  <si>
-    <t>JXS2302251096</t>
-  </si>
-  <si>
-    <t>JXS2302260418</t>
-  </si>
-  <si>
-    <t>JXS2302270620</t>
-  </si>
-  <si>
-    <t>JXS2302280468</t>
-  </si>
-  <si>
-    <t>JY202302130575</t>
-  </si>
-  <si>
-    <t>JY202302130576</t>
-  </si>
-  <si>
-    <t>JY202302130576_YH</t>
-  </si>
-  <si>
-    <t>JY202302150730</t>
-  </si>
-  <si>
-    <t>JY202302150730_YH</t>
-  </si>
-  <si>
-    <t>JY202302160608</t>
-  </si>
-  <si>
-    <t>JY202302160608_YH</t>
-  </si>
-  <si>
-    <t>JY202302170503</t>
-  </si>
-  <si>
-    <t>JY202302170503_YH</t>
-  </si>
-  <si>
-    <t>JY202302220380</t>
-  </si>
-  <si>
-    <t>JY202302220380_BZF</t>
-  </si>
-  <si>
-    <t>DO252877637163072</t>
-  </si>
-  <si>
-    <t>JXS2302251095</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="58">
+  <si>
+    <t>DO252877835981632</t>
+  </si>
+  <si>
+    <t>JTS2302160026</t>
+  </si>
+  <si>
+    <t>JXS2302020013</t>
+  </si>
+  <si>
+    <t>JXS2302240956</t>
+  </si>
+  <si>
+    <t>JXS2302260556</t>
+  </si>
+  <si>
+    <t>JXS2302260597</t>
+  </si>
+  <si>
+    <t>JY202302010359</t>
+  </si>
+  <si>
+    <t>JY202302010519</t>
+  </si>
+  <si>
+    <t>JY202302010519_YH</t>
+  </si>
+  <si>
+    <t>JY202302050096</t>
+  </si>
+  <si>
+    <t>JY202302050096_YH</t>
+  </si>
+  <si>
+    <t>JY202302050213</t>
+  </si>
+  <si>
+    <t>JY202302050213_YH</t>
+  </si>
+  <si>
+    <t>JY202302050275</t>
+  </si>
+  <si>
+    <t>JY202302050275_YH</t>
+  </si>
+  <si>
+    <t>JY202302060232</t>
+  </si>
+  <si>
+    <t>JY202302060232_YH</t>
+  </si>
+  <si>
+    <t>JY202302090366</t>
+  </si>
+  <si>
+    <t>JY202302090366-CH</t>
+  </si>
+  <si>
+    <t>JY202302090366_BZF</t>
+  </si>
+  <si>
+    <t>JY202302090366_BZFCH</t>
+  </si>
+  <si>
+    <t>JY202302090396</t>
+  </si>
+  <si>
+    <t>JY202302090396_BZF</t>
+  </si>
+  <si>
+    <t>JY202302110387</t>
+  </si>
+  <si>
+    <t>JY202302110387_YH</t>
+  </si>
+  <si>
+    <t>JY202302120526</t>
+  </si>
+  <si>
+    <t>JY202302130468</t>
+  </si>
+  <si>
+    <t>JY202302130468_YH</t>
+  </si>
+  <si>
+    <t>JY202302140537</t>
+  </si>
+  <si>
+    <t>JY202302140537_YH</t>
+  </si>
+  <si>
+    <t>JY202302140683</t>
+  </si>
+  <si>
+    <t>JY202302140683_YH</t>
+  </si>
+  <si>
+    <t>JY202302150052</t>
+  </si>
+  <si>
+    <t>JY202302150056</t>
+  </si>
+  <si>
+    <t>JY202302150056_BZF</t>
+  </si>
+  <si>
+    <t>JY202302150056_YH</t>
+  </si>
+  <si>
+    <t>JY202302160293</t>
+  </si>
+  <si>
+    <t>JY202302160293_YH</t>
+  </si>
+  <si>
+    <t>JY202302170504</t>
+  </si>
+  <si>
+    <t>JY202302180050</t>
+  </si>
+  <si>
+    <t>JY202302200239</t>
+  </si>
+  <si>
+    <t>JY202302200240</t>
+  </si>
+  <si>
+    <t>JY202302200240_YH</t>
+  </si>
+  <si>
+    <t>JY202302210364</t>
+  </si>
+  <si>
+    <t>JY202302210364_YH</t>
+  </si>
+  <si>
+    <t>JY202302210455</t>
+  </si>
+  <si>
+    <t>JY202302210455_YH</t>
+  </si>
+  <si>
+    <t>JY202302240588_YH</t>
+  </si>
+  <si>
+    <t>JY202302260502</t>
+  </si>
+  <si>
+    <t>JY202302260502_YH</t>
+  </si>
+  <si>
+    <t>JY202302270037</t>
+  </si>
+  <si>
+    <t>JY202302280357</t>
+  </si>
+  <si>
+    <t>JY202302280357_BZF</t>
+  </si>
+  <si>
+    <t>RTO252777957062416_01</t>
+  </si>
+  <si>
+    <t>JXS2302050419</t>
+  </si>
+  <si>
+    <t>JXS2302160817</t>
+  </si>
+  <si>
+    <t>JY202302240588</t>
+  </si>
+  <si>
+    <t>JY202302270198</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -155,28 +563,317 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -225,7 +922,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -258,26 +955,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -310,23 +990,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -468,27 +1131,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668F2B74-CD6B-3644-91C2-68F73304D427}">
-  <dimension ref="A1:A28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -497,141 +1152,601 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="17.6"/>
+  <cols>
+    <col min="1" max="1" width="11" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
         <v>24</v>
       </c>
     </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>